--- a/teaching/traditional_assets/database/data/sweden/sweden_semiconductor_equip.xlsx
+++ b/teaching/traditional_assets/database/data/sweden/sweden_semiconductor_equip.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,34 +591,34 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.167</v>
+        <v>0.135</v>
       </c>
       <c r="G2">
-        <v>0.1451451451451452</v>
+        <v>0.0633245382585752</v>
       </c>
       <c r="H2">
-        <v>0.02569235902569238</v>
+        <v>-0.1372031662269129</v>
       </c>
       <c r="I2">
-        <v>-0.05999332665999333</v>
+        <v>-0.5699208443271768</v>
       </c>
       <c r="J2">
-        <v>-0.05999332665999333</v>
+        <v>-0.5699208443271768</v>
       </c>
       <c r="K2">
-        <v>-3.21</v>
+        <v>-12.82</v>
       </c>
       <c r="L2">
-        <v>-0.1071071071071071</v>
+        <v>-0.6765171503957784</v>
       </c>
       <c r="M2">
-        <v>0.885</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.007987364620938627</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-0.2757009345794393</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -630,79 +630,76 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>0.885</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>14.304</v>
+        <v>5.489999999999999</v>
       </c>
       <c r="V2">
-        <v>0.1290974729241877</v>
+        <v>0.05233555767397521</v>
       </c>
       <c r="W2">
-        <v>-0.2894240365731947</v>
+        <v>-0.6821138211382114</v>
       </c>
       <c r="X2">
-        <v>0.124122034106577</v>
+        <v>0.09480812387688478</v>
       </c>
       <c r="Y2">
-        <v>-0.4135460706797717</v>
+        <v>-0.7769219450150961</v>
       </c>
       <c r="Z2">
-        <v>1.963958060288336</v>
+        <v>0.7003732860257973</v>
       </c>
       <c r="AA2">
-        <v>-0.1789273389606854</v>
+        <v>-0.3648124191461837</v>
       </c>
       <c r="AB2">
-        <v>0.1158274827021989</v>
+        <v>0.09100351502214046</v>
       </c>
       <c r="AC2">
-        <v>-0.2947548216628843</v>
+        <v>-0.4558159341683241</v>
       </c>
       <c r="AD2">
-        <v>22.516</v>
+        <v>25.447</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>22.516</v>
+        <v>25.447</v>
       </c>
       <c r="AG2">
-        <v>8.211999999999998</v>
+        <v>19.957</v>
       </c>
       <c r="AH2">
-        <v>0.168891955954274</v>
+        <v>0.1952250531274214</v>
       </c>
       <c r="AI2">
-        <v>0.6004907190100278</v>
+        <v>0.5823511911572876</v>
       </c>
       <c r="AJ2">
-        <v>0.06900144523241351</v>
+        <v>0.1598388556508646</v>
       </c>
       <c r="AK2">
-        <v>0.3540876164194549</v>
+        <v>0.522338838432748</v>
       </c>
       <c r="AL2">
-        <v>1.333</v>
+        <v>1.898</v>
       </c>
       <c r="AM2">
-        <v>1.06</v>
+        <v>1.893</v>
       </c>
       <c r="AN2">
-        <v>-2251.599999999998</v>
+        <v>-3.388415446071904</v>
       </c>
       <c r="AO2">
-        <v>-1.348837209302326</v>
+        <v>-5.690200210748157</v>
       </c>
       <c r="AP2">
-        <v>-821.199999999999</v>
+        <v>-2.657390146471372</v>
       </c>
       <c r="AQ2">
-        <v>-1.69622641509434</v>
+        <v>-5.705229793977813</v>
       </c>
     </row>
     <row r="3">
@@ -722,31 +719,31 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.2758771929824561</v>
+        <v>-0.00153846153846154</v>
       </c>
       <c r="H3">
-        <v>0.2210526315789474</v>
+        <v>-0.1176923076923077</v>
       </c>
       <c r="I3">
-        <v>-0.009122807017543859</v>
+        <v>-0.5184615384615385</v>
       </c>
       <c r="J3">
-        <v>-0.009122807017543859</v>
+        <v>-0.5184615384615385</v>
       </c>
       <c r="K3">
-        <v>-1.48</v>
+        <v>-8.390000000000001</v>
       </c>
       <c r="L3">
-        <v>-0.06491228070175438</v>
+        <v>-0.6453846153846154</v>
       </c>
       <c r="M3">
-        <v>0.885</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.009977452085682074</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0.597972972972973</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -758,79 +755,76 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.885</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>14.3</v>
+        <v>3.09</v>
       </c>
       <c r="V3">
-        <v>0.161217587373168</v>
+        <v>0.06943820224719101</v>
       </c>
       <c r="W3">
-        <v>-0.08314606741573033</v>
+        <v>-0.6821138211382114</v>
       </c>
       <c r="X3">
-        <v>0.1322732322464408</v>
+        <v>0.1263784735478682</v>
       </c>
       <c r="Y3">
-        <v>-0.2154192996621711</v>
+        <v>-0.8084922946860795</v>
       </c>
       <c r="Z3">
-        <v>2.159499905285092</v>
+        <v>0.6532663316582914</v>
       </c>
       <c r="AA3">
-        <v>-0.01970070089032014</v>
+        <v>-0.3386934673366834</v>
       </c>
       <c r="AB3">
-        <v>0.1180190188088544</v>
+        <v>0.08870540105623384</v>
       </c>
       <c r="AC3">
-        <v>-0.1377197196991746</v>
+        <v>-0.4273988683929172</v>
       </c>
       <c r="AD3">
-        <v>21.9</v>
+        <v>24.5</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>21.9</v>
+        <v>24.5</v>
       </c>
       <c r="AG3">
-        <v>7.599999999999998</v>
+        <v>21.41</v>
       </c>
       <c r="AH3">
-        <v>0.1980108499095841</v>
+        <v>0.355072463768116</v>
       </c>
       <c r="AI3">
-        <v>0.6403508771929823</v>
+        <v>0.7410768300060495</v>
       </c>
       <c r="AJ3">
-        <v>0.07892004153686395</v>
+        <v>0.3248368988013959</v>
       </c>
       <c r="AK3">
-        <v>0.3819095477386934</v>
+        <v>0.714381047714381</v>
       </c>
       <c r="AL3">
-        <v>0.966</v>
+        <v>1.7</v>
       </c>
       <c r="AM3">
-        <v>0.8049999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="AN3">
-        <v>16.59090909090909</v>
+        <v>-4.832347140039447</v>
       </c>
       <c r="AO3">
-        <v>-0.2153209109730849</v>
+        <v>-3.964705882352941</v>
       </c>
       <c r="AP3">
-        <v>5.757575757575756</v>
+        <v>-4.222879684418146</v>
       </c>
       <c r="AQ3">
-        <v>-0.2583850931677019</v>
+        <v>-3.964705882352941</v>
       </c>
     </row>
     <row r="4">
@@ -841,124 +835,237 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Smoltek Nanotech Holding AB (NGM:SMOL)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Semiconductor Equip</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>-1.698795180722892</v>
+      </c>
+      <c r="J4">
+        <v>-1.698795180722892</v>
+      </c>
+      <c r="K4">
+        <v>-1.41</v>
+      </c>
+      <c r="L4">
+        <v>-1.698795180722892</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>2.32</v>
+      </c>
+      <c r="V4">
+        <v>0.05054466230936819</v>
+      </c>
+      <c r="W4">
+        <v>-0.2079646017699115</v>
+      </c>
+      <c r="X4">
+        <v>0.09114373177741311</v>
+      </c>
+      <c r="Y4">
+        <v>-0.2991083335473246</v>
+      </c>
+      <c r="Z4">
+        <v>0.2147477360931436</v>
+      </c>
+      <c r="AA4">
+        <v>-0.3648124191461837</v>
+      </c>
+      <c r="AB4">
+        <v>0.09100351502214046</v>
+      </c>
+      <c r="AC4">
+        <v>-0.4558159341683241</v>
+      </c>
+      <c r="AD4">
+        <v>0.091</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0.091</v>
+      </c>
+      <c r="AG4">
+        <v>-2.229</v>
+      </c>
+      <c r="AH4">
+        <v>0.001978647996347111</v>
+      </c>
+      <c r="AI4">
+        <v>0.01178603807796917</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.05104073641547021</v>
+      </c>
+      <c r="AK4">
+        <v>-0.4127013516015552</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Obducat AB (publ) (NGM:OBDU B)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Semiconductor Equip</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.167</v>
-      </c>
-      <c r="G4">
-        <v>-0.2705718270571826</v>
-      </c>
-      <c r="H4">
-        <v>-0.5955369595536959</v>
-      </c>
-      <c r="I4">
-        <v>-0.2217573221757322</v>
-      </c>
-      <c r="J4">
-        <v>-0.2217573221757322</v>
-      </c>
-      <c r="K4">
-        <v>-1.73</v>
-      </c>
-      <c r="L4">
-        <v>-0.2412831241283124</v>
-      </c>
-      <c r="M4">
-        <v>-0</v>
-      </c>
-      <c r="N4">
-        <v>-0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>-0</v>
-      </c>
-      <c r="Q4">
-        <v>-0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.004</v>
-      </c>
-      <c r="V4">
-        <v>0.0001809954751131222</v>
-      </c>
-      <c r="W4">
-        <v>-0.495702005730659</v>
-      </c>
-      <c r="X4">
-        <v>0.1159708359667133</v>
-      </c>
-      <c r="Y4">
-        <v>-0.6116728416973722</v>
-      </c>
-      <c r="Z4">
-        <v>1.524883028498511</v>
-      </c>
-      <c r="AA4">
-        <v>-0.3381539770310507</v>
-      </c>
-      <c r="AB4">
-        <v>0.1136359465955434</v>
-      </c>
-      <c r="AC4">
-        <v>-0.451789923626594</v>
-      </c>
-      <c r="AD4">
-        <v>0.616</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0.616</v>
-      </c>
-      <c r="AG4">
-        <v>0.612</v>
-      </c>
-      <c r="AH4">
-        <v>0.02711745025532664</v>
-      </c>
-      <c r="AI4">
-        <v>0.1868932038834951</v>
-      </c>
-      <c r="AJ4">
-        <v>0.02694610778443114</v>
-      </c>
-      <c r="AK4">
-        <v>0.1859052247873633</v>
-      </c>
-      <c r="AL4">
-        <v>0.367</v>
-      </c>
-      <c r="AM4">
-        <v>0.255</v>
-      </c>
-      <c r="AN4">
-        <v>-0.4631578947368421</v>
-      </c>
-      <c r="AO4">
-        <v>-4.332425068119892</v>
-      </c>
-      <c r="AP4">
-        <v>-0.4601503759398496</v>
-      </c>
-      <c r="AQ4">
-        <v>-6.235294117647059</v>
+      <c r="D5">
+        <v>0.135</v>
+      </c>
+      <c r="G5">
+        <v>0.23828125</v>
+      </c>
+      <c r="H5">
+        <v>-0.208984375</v>
+      </c>
+      <c r="I5">
+        <v>-0.517578125</v>
+      </c>
+      <c r="J5">
+        <v>-0.517578125</v>
+      </c>
+      <c r="K5">
+        <v>-3.02</v>
+      </c>
+      <c r="L5">
+        <v>-0.58984375</v>
+      </c>
+      <c r="M5">
+        <v>-0</v>
+      </c>
+      <c r="N5">
+        <v>-0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>-0</v>
+      </c>
+      <c r="Q5">
+        <v>-0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0.08</v>
+      </c>
+      <c r="V5">
+        <v>0.005517241379310345</v>
+      </c>
+      <c r="W5">
+        <v>-1.126865671641791</v>
+      </c>
+      <c r="X5">
+        <v>0.09480812387688478</v>
+      </c>
+      <c r="Y5">
+        <v>-1.221673795518676</v>
+      </c>
+      <c r="Z5">
+        <v>1.555285540704739</v>
+      </c>
+      <c r="AA5">
+        <v>-0.8049817739975698</v>
+      </c>
+      <c r="AB5">
+        <v>0.09131627969619883</v>
+      </c>
+      <c r="AC5">
+        <v>-0.8962980536937686</v>
+      </c>
+      <c r="AD5">
+        <v>0.856</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0.856</v>
+      </c>
+      <c r="AG5">
+        <v>0.776</v>
+      </c>
+      <c r="AH5">
+        <v>0.05574368325084657</v>
+      </c>
+      <c r="AI5">
+        <v>0.2935528120713306</v>
+      </c>
+      <c r="AJ5">
+        <v>0.05079863838701231</v>
+      </c>
+      <c r="AK5">
+        <v>0.2736248236953455</v>
+      </c>
+      <c r="AL5">
+        <v>0.198</v>
+      </c>
+      <c r="AM5">
+        <v>0.193</v>
+      </c>
+      <c r="AN5">
+        <v>-0.3508196721311476</v>
+      </c>
+      <c r="AO5">
+        <v>-13.38383838383838</v>
+      </c>
+      <c r="AP5">
+        <v>-0.3180327868852459</v>
+      </c>
+      <c r="AQ5">
+        <v>-13.73056994818653</v>
       </c>
     </row>
   </sheetData>
